--- a/biology/Médecine/Frottis_sanguin/Frottis_sanguin.xlsx
+++ b/biology/Médecine/Frottis_sanguin/Frottis_sanguin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un frottis sanguin est du sang étalé sur une lame de microscope, dans le but d'observer ses cellules et aussi les dénombrer. Le frottis doit subir une coloration pour révéler certaines cellules qui sans cela seraient transparentes, donc non visibles. Il permet également de repérer un éventuel parasite dans le sang comme l'agent du paludisme, le Plasmodium falciparum.
 </t>
@@ -511,7 +523,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Étaler une goutte de sang uniformément sur une lame de verre, de manière à obtenir une seule couche de cellules.
 Après coloration et fixation, on pourra effectuer l'étude morphologique des éléments figurés du sang, et déterminer s'il y a anomalies de présence, d'aspect ou de nombre de cellules.
@@ -543,7 +557,9 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Marquer la lame de verre (environ 2 × 5 cm)
 Déposer une petite goutte de sang à 1 cm du bord de la lame, à l'aide d'un tube capillaire
